--- a/temp/temp.xlsx
+++ b/temp/temp.xlsx
@@ -586,55 +586,29 @@
           <t>Anacortes</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>3400.0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>3304.0</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>3311.0</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>3404.0</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>2802</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>2702.0</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>2802</t>
-        </is>
+      <c r="I2" t="n">
+        <v>3400</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>3304</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3311</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3404</v>
+      </c>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="n">
+        <v>2802</v>
+      </c>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="n">
+        <v>2702</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2702</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -699,55 +673,29 @@
           <t>Anacortes</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>2808.0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>2808.0</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>2611.0</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>2605.0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>2408</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>2305.0</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>2408</t>
-        </is>
+      <c r="I3" t="n">
+        <v>2808</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2808</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2611</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
+        <v>2605</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2408</v>
+      </c>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="n">
+        <v>2305</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2305</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -814,55 +762,29 @@
           <t>Anacortes</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>2702.0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>2702.0</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>2509.0</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>2206</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>2003.0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>2306.0</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>2206</t>
-        </is>
+      <c r="I4" t="n">
+        <v>2702</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2702</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2509</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="n">
+        <v>2206</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2003</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2306</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2306</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -931,55 +853,29 @@
           <t>Anacortes</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>2500.0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>2500.0</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>2302.0</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>2001</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>1807.0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>2102.0</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>2001</t>
-        </is>
+      <c r="I5" t="n">
+        <v>2500</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2500</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2302</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="n">
+        <v>2001</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1807</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2102</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2102</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -1045,55 +941,31 @@
           <t>Anacortes</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>2608.0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>2608.0</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>2511.0</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>2600.0</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>2106</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>2206.0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>2306.0</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>2106</t>
-        </is>
+      <c r="I6" t="n">
+        <v>2608</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2608</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2511</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="n">
+        <v>2600</v>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="n">
+        <v>2106</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2206</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2306</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2306</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -1161,55 +1033,29 @@
           <t>Anacortes</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>3008.0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>3008.0</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>2808.0</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>2509</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>2204.0</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>2606.0</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>2506</t>
-        </is>
+      <c r="I7" t="n">
+        <v>3008</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3008</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2808</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="n">
+        <v>2509</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2204</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2606</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2606</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1276,55 +1122,31 @@
           <t>Anacortes</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>3006.0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>3006.0</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>2904.0</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>3000.0</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>2304</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>2100.0</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>2404.0</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>2304</t>
-        </is>
+      <c r="I8" t="n">
+        <v>3006</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3006</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2904</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="n">
+        <v>3000</v>
+      </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="n">
+        <v>2304</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2100</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2404</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2404</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1389,55 +1211,29 @@
           <t>Anacortes</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>2910.0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>2910.0</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>2902.0</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>2505</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>2500.0</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>2511.0</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>2411</t>
-        </is>
+      <c r="I9" t="n">
+        <v>2910</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2910</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2902</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="n">
+        <v>2505</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2500</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2511</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2511</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1505,56 +1301,26 @@
           <t>Anacortes</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>2508.0</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>2500.0</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>2510.0</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>2304</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>2209.0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>2108</t>
-        </is>
-      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>2508</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="n">
+        <v>2510</v>
+      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="n">
+        <v>2304</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2209</v>
+      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr">
         <is>
           <t>Lower CATV to 21' 08'', Telco to 20' 08''
@@ -1624,55 +1390,27 @@
           <t>Anacortes</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>2200.0</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>2105.0</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>1806</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>1706.0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>1906.0</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>1806</t>
-        </is>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>2200</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2105</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="n">
+        <v>1806</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1706</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1906</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1906</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
@@ -1739,55 +1477,23 @@
           <t>Anacortes</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>2400</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>2308.0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>2404.0</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>2304</t>
-        </is>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="n">
+        <v>2400</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2308</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2404</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2404</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -1854,55 +1560,23 @@
           <t>Anacortes</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>1910</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>1807.0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>2010.0</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>1910</t>
-        </is>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="n">
+        <v>1910</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1807</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2010</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2010</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -1967,55 +1641,27 @@
           <t>Anacortes</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>2505.0</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>2500.0</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>2210</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>2205.0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>2303.0</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>2101</t>
-        </is>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>2505</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="n">
+        <v>2210</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2205</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2303</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2303</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -2088,55 +1734,23 @@
           <t>Anacortes</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>2409</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>2309.0</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>2506.0</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>2409</t>
-        </is>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="n">
+        <v>2409</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2309</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2506</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2506</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -2201,55 +1815,25 @@
           <t>Anacortes</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>2700.0</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>2107</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>2005.0</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>2210.0</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>2107</t>
-        </is>
+      <c r="I16" t="n">
+        <v>2700</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="n">
+        <v>2107</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2005</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2210</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2210</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -2314,55 +1898,23 @@
           <t>Anacortes</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>1910</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>1810.0</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>2107.0</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>1910</t>
-        </is>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="n">
+        <v>1910</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1810</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2107</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2107</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2427,55 +1979,25 @@
           <t>Anacortes</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>2508.0</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>2305</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>2300.0</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>2400.0</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>2104</t>
-        </is>
+      <c r="I18" t="n">
+        <v>2508</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="n">
+        <v>2305</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2300</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2400</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2400</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2544,55 +2066,31 @@
           <t>Anacortes</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>2502.0</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>2502.0</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>2404.0</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>2502.0</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>2001</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>1808.0</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>2103.0</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>2001</t>
-        </is>
+      <c r="I19" t="n">
+        <v>2502</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2502</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2404</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
+        <v>2502</v>
+      </c>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="n">
+        <v>2001</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1808</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2103</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2103</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2657,55 +2155,29 @@
           <t>Anacortes</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>2707.0</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>2707.0</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>2700.0</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>2300</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>2205.0</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>2304.0</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>2204</t>
-        </is>
+      <c r="I20" t="n">
+        <v>2707</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2707</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2700</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="n">
+        <v>2300</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2205</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2304</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2304</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2772,56 +2244,26 @@
           <t>Anacortes</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>2805.0</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>2805.0</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>2800.0</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>2503</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>2405.0</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>24' 08''</t>
-        </is>
-      </c>
+      <c r="I21" t="n">
+        <v>2805</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2805</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2800</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="n">
+        <v>2503</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2405</v>
+      </c>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr">
         <is>
           <t>Lower CATV to 24' 08'', Telco to 23' 08''
@@ -2888,56 +2330,26 @@
           <t>Anacortes</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>2808.0</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>2808.0</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>2800.0</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>2405</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>2400.0</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>2405</t>
-        </is>
-      </c>
+      <c r="I22" t="n">
+        <v>2808</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2808</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2800</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="n">
+        <v>2405</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2400</v>
+      </c>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr">
         <is>
           <t>Lower Telco to 23' 05''
@@ -3001,56 +2413,28 @@
           <t>Anacortes</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>2500.0</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>2500.0</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>2405.0</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>2408.0</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>2202</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>2106.0</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>2202</t>
-        </is>
-      </c>
+      <c r="I23" t="n">
+        <v>2500</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2500</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2405</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="n">
+        <v>2408</v>
+      </c>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="n">
+        <v>2202</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2106</v>
+      </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr">
         <is>
           <t>Lower CATV to 21' 01'', Telco to 19' 01''
@@ -3120,55 +2504,29 @@
           <t>Anacortes</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>2211.0</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>2211.0</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>2200.0</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>2300.0</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>1803</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>1903.0</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>1803</t>
-        </is>
+      <c r="I24" t="n">
+        <v>2211</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2211</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="n">
+        <v>2300</v>
+      </c>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="n">
+        <v>1803</v>
+      </c>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="n">
+        <v>1903</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1903</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -3233,55 +2591,27 @@
           <t>Anacortes</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>2210.0</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>2210.0</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>2201.0</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>1801</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>1904.0</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>1801</t>
-        </is>
+      <c r="I25" t="n">
+        <v>2210</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2210</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2201</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="n">
+        <v>1801</v>
+      </c>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="n">
+        <v>1904</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1904</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -3346,55 +2676,29 @@
           <t>Anacortes</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>2409.0</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>2409.0</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>2400.0</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>2503.0</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>1800</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>1808.0</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>1800</t>
-        </is>
+      <c r="I26" t="n">
+        <v>2409</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2409</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="n">
+        <v>2503</v>
+      </c>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="n">
+        <v>1800</v>
+      </c>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="n">
+        <v>1808</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1808</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -3459,55 +2763,29 @@
           <t>Anacortes</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>2201.0</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>2201.0</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>2105.0</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>2100.0</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>1700</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>1802.0</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>1700</t>
-        </is>
+      <c r="I27" t="n">
+        <v>2201</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2201</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2105</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
+        <v>2100</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1700</v>
+      </c>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="n">
+        <v>1802</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1802</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -3573,55 +2851,27 @@
           <t>Anacortes</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>2105.0</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>2105.0</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>2007.0</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>1608</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>1708.0</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>1608</t>
-        </is>
+      <c r="I28" t="n">
+        <v>2105</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2105</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2007</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="n">
+        <v>1608</v>
+      </c>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="n">
+        <v>1708</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1708</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3686,55 +2936,29 @@
           <t>Anacortes</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>2111.0</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>2111.0</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>2102.0</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>2011.0</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>1706</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>1809.0</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>1608</t>
-        </is>
+      <c r="I29" t="n">
+        <v>2111</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2111</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2102</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
+        <v>2011</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1706</v>
+      </c>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="n">
+        <v>1809</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1809</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3802,55 +3026,27 @@
           <t>Anacortes</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>2410.0</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>2410.0</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>2402.0</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>1910</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>2010.0</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>1910</t>
-        </is>
+      <c r="I30" t="n">
+        <v>2410</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2410</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2402</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="n">
+        <v>1910</v>
+      </c>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="n">
+        <v>2010</v>
+      </c>
+      <c r="R30" t="n">
+        <v>2010</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3915,55 +3111,31 @@
           <t>Anacortes</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>2303.0</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>2303.0</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>2210.0</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>2208.0</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>2202.0</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>2004.0</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>1804</t>
-        </is>
+      <c r="I31" t="n">
+        <v>2303</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2303</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2210</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="n">
+        <v>2208</v>
+      </c>
+      <c r="N31" t="n">
+        <v>2202</v>
+      </c>
+      <c r="O31" t="n">
+        <v>2000</v>
+      </c>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="n">
+        <v>2004</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2004</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -4038,55 +3210,29 @@
           <t>Anacortes</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>2604.0</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>2511.0</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>2503.0</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>2105</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>1804.0</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>2205.0</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>2105</t>
-        </is>
+      <c r="I32" t="n">
+        <v>2604</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2511</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2503</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="n">
+        <v>2105</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1804</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2205</v>
+      </c>
+      <c r="R32" t="n">
+        <v>2205</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -4151,56 +3297,22 @@
           <t>Anacortes</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>2902.0</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>2004</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>1709.0</t>
-        </is>
-      </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>2004</t>
-        </is>
-      </c>
+      <c r="I33" t="n">
+        <v>2902</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="n">
+        <v>2004</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1709</v>
+      </c>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr">
         <is>
           <t xml:space="preserve">nan
@@ -4264,56 +3376,28 @@
           <t>Anacortes</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>3000.0</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>3000.0</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>2700.0</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>2801.0</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>2204</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>2104.0</t>
-        </is>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>2204</t>
-        </is>
-      </c>
+      <c r="I34" t="n">
+        <v>3000</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3000</v>
+      </c>
+      <c r="K34" t="n">
+        <v>2700</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="n">
+        <v>2801</v>
+      </c>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="n">
+        <v>2204</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2104</v>
+      </c>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr">
         <is>
           <t xml:space="preserve">nan
@@ -4377,56 +3461,28 @@
           <t>Anacortes</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>2506.0</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>2506.0</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>2401.0</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>2500.0</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>2110</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>2009.0</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>2110</t>
-        </is>
-      </c>
+      <c r="I35" t="n">
+        <v>2506</v>
+      </c>
+      <c r="J35" t="n">
+        <v>2506</v>
+      </c>
+      <c r="K35" t="n">
+        <v>2401</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="n">
+        <v>2500</v>
+      </c>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="n">
+        <v>2110</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2009</v>
+      </c>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr">
         <is>
           <t>Dress drip loop
@@ -4491,56 +3547,26 @@
           <t>Anacortes</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>2510.0</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>2501.0</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>2304.0</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>2004</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>2006.0</t>
-        </is>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
+      <c r="I36" t="n">
+        <v>2510</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2501</v>
+      </c>
+      <c r="K36" t="n">
+        <v>2304</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="n">
+        <v>2004</v>
+      </c>
+      <c r="P36" t="n">
+        <v>2006</v>
+      </c>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr">
         <is>
           <t>Lower CATV to 20' 00'', Telco to 19' 00''
@@ -4606,56 +3632,26 @@
           <t>Anacortes</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>2700.0</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>2700.0</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>2510.0</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>2208</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>2101.0</t>
-        </is>
-      </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>2208</t>
-        </is>
-      </c>
+      <c r="I37" t="n">
+        <v>2700</v>
+      </c>
+      <c r="J37" t="n">
+        <v>2700</v>
+      </c>
+      <c r="K37" t="n">
+        <v>2510</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="n">
+        <v>2208</v>
+      </c>
+      <c r="P37" t="n">
+        <v>2101</v>
+      </c>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr">
         <is>
           <t>Dress drip loop
@@ -4719,56 +3715,26 @@
           <t>Anacortes</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>2606.0</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>2606.0</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>2504.0</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>2211</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>2201.0</t>
-        </is>
-      </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>2211</t>
-        </is>
-      </c>
+      <c r="I38" t="n">
+        <v>2606</v>
+      </c>
+      <c r="J38" t="n">
+        <v>2606</v>
+      </c>
+      <c r="K38" t="n">
+        <v>2504</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="n">
+        <v>2211</v>
+      </c>
+      <c r="P38" t="n">
+        <v>2201</v>
+      </c>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr">
         <is>
           <t>Dress drip loop, Telco to 21' 11''
@@ -4834,56 +3800,26 @@
           <t>Anacortes</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>2606.0</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>2606.0</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>2509.0</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>2000.0</t>
-        </is>
-      </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
-      </c>
+      <c r="I39" t="n">
+        <v>2606</v>
+      </c>
+      <c r="J39" t="n">
+        <v>2606</v>
+      </c>
+      <c r="K39" t="n">
+        <v>2509</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="n">
+        <v>2008</v>
+      </c>
+      <c r="P39" t="n">
+        <v>2000</v>
+      </c>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr">
         <is>
           <t>Lower Telco to 19' 08''
@@ -4947,56 +3883,26 @@
           <t>Anacortes</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>2505.0</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>2409.0</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>2406.0</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>2209</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>2200.0</t>
-        </is>
-      </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>2100</t>
-        </is>
-      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>2505</v>
+      </c>
+      <c r="K40" t="n">
+        <v>2409</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="n">
+        <v>2406</v>
+      </c>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="n">
+        <v>2209</v>
+      </c>
+      <c r="P40" t="n">
+        <v>2200</v>
+      </c>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr">
         <is>
           <t>Lower CATV to 21' 00"

--- a/temp/temp.xlsx
+++ b/temp/temp.xlsx
@@ -551,21 +551,9 @@
           <t>PSE</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
         <v>3400</v>
       </c>
@@ -587,17 +575,8 @@
       <c r="P2" t="n">
         <v>2701</v>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">nan
-</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr">
         <is>
           <t>pse_primary_riser: 3311</t>
@@ -625,21 +604,9 @@
           <t>PSE</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
         <v>2808</v>
       </c>
@@ -665,17 +632,12 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>nan
-VIOLATION-catv is 27" from drip_loop
+          <t>VIOLATION-catv is 27" from drip_loop
 VIOLATION-catv is 21" from streetlight
 VIOLATION-fiber is 36" from streetlight</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr">
         <is>
           <t>Drop: 2206</t>
@@ -703,21 +665,9 @@
           <t>PSE</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
         <v>2702</v>
       </c>
@@ -743,19 +693,14 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>nan
-VIOLATION-fiber is 29" from drip_loop
+          <t>VIOLATION-fiber is 29" from drip_loop
 VIOLATION-catv is 39" from drip_loop
 VIOLATION-catv is 10" from fiber
 VIOLATION-catv second attach is 5" from catv
 VIOLATION-telco is 8" from telco second attach</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr">
         <is>
           <t>CATV second attach: 2201
@@ -784,21 +729,9 @@
           <t>PSE</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
         <v>2500</v>
       </c>
@@ -824,16 +757,11 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>nan
-VIOLATION-fiber is 24" from drip_loop
+          <t>VIOLATION-fiber is 24" from drip_loop
 VIOLATION-catv is 37" from drip_loop</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr">
         <is>
           <t>nan</t>
@@ -861,21 +789,9 @@
           <t>PSE</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
         <v>2608</v>
       </c>
@@ -903,19 +819,14 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>nan
-VIOLATION-fiber is 39" from neutral_height
+          <t>VIOLATION-fiber is 39" from neutral_height
 VIOLATION-fiber is 39" from secondary_spool
 VIOLATION-fiber is 31" from secondary_riser
 VIOLATION-fiber is 30" from drip_loop
 VIOLATION-telco is 11" from fiber</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr">
         <is>
           <t>nan</t>
@@ -943,21 +854,9 @@
           <t>PSE</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
         <v>3008</v>
       </c>
@@ -983,17 +882,12 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>nan
-VIOLATION-fiber is 26" from drip_loop
+          <t>VIOLATION-fiber is 26" from drip_loop
 VIOLATION-catv is 35" from drip_loop
 VIOLATION-catv is 9" from fiber</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr">
         <is>
           <t>nan</t>
@@ -1021,21 +915,9 @@
           <t>PSE</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
         <v>3006</v>
       </c>
@@ -1063,15 +945,10 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>nan
-VIOLATION-catv is 11" from fiber</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+          <t>VIOLATION-catv is 11" from fiber</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr">
         <is>
           <t>nan</t>
@@ -1099,21 +976,9 @@
           <t>PSE</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
         <v>2910</v>
       </c>
@@ -1139,18 +1004,13 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>nan
-VIOLATION-fiber is 39" from drip_loop
+          <t>VIOLATION-fiber is 39" from drip_loop
 VIOLATION-catv is 6" from fiber
 VIOLATION-telco is 11" from fiber
 VIOLATION-telco is 5" from catv</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr">
         <is>
           <t>nan</t>
@@ -1178,21 +1038,9 @@
           <t>PSE</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
         <v>2508</v>
@@ -1214,8 +1062,7 @@
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>nan
-VIOLATION-catv is 30" from secondary_riser
+          <t>VIOLATION-catv is 30" from secondary_riser
 VIOLATION-telco is 37" from secondary_riser
 VIOLATION-catv is 28" from secondary_spool
 VIOLATION-telco is 35" from secondary_spool
@@ -1224,11 +1071,7 @@
 VIOLATION-telco is 7" from catv</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr">
         <is>
           <t>nan</t>

--- a/temp/temp.xlsx
+++ b/temp/temp.xlsx
@@ -572,9 +572,7 @@
       <c r="O2" t="n">
         <v>2701</v>
       </c>
-      <c r="P2" t="n">
-        <v>2701</v>
-      </c>
+      <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr">
@@ -627,9 +625,7 @@
       <c r="O3" t="n">
         <v>2305</v>
       </c>
-      <c r="P3" t="n">
-        <v>2305</v>
-      </c>
+      <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr">
         <is>
           <t>VIOLATION-catv is 27" from drip_loop
@@ -688,9 +684,7 @@
       <c r="O4" t="n">
         <v>2304</v>
       </c>
-      <c r="P4" t="n">
-        <v>2304</v>
-      </c>
+      <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr">
         <is>
           <t>VIOLATION-fiber is 29" from drip_loop
@@ -752,9 +746,7 @@
       <c r="O5" t="n">
         <v>2102</v>
       </c>
-      <c r="P5" t="n">
-        <v>2102</v>
-      </c>
+      <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr">
         <is>
           <t>VIOLATION-fiber is 24" from drip_loop
@@ -814,9 +806,7 @@
       <c r="O6" t="n">
         <v>2305</v>
       </c>
-      <c r="P6" t="n">
-        <v>2305</v>
-      </c>
+      <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr">
         <is>
           <t>VIOLATION-fiber is 39" from neutral_height
@@ -877,9 +867,7 @@
       <c r="O7" t="n">
         <v>2606</v>
       </c>
-      <c r="P7" t="n">
-        <v>2606</v>
-      </c>
+      <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr">
         <is>
           <t>VIOLATION-fiber is 26" from drip_loop
@@ -940,9 +928,7 @@
       <c r="O8" t="n">
         <v>2403</v>
       </c>
-      <c r="P8" t="n">
-        <v>2403</v>
-      </c>
+      <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr">
         <is>
           <t>VIOLATION-catv is 11" from fiber</t>
@@ -999,9 +985,7 @@
       <c r="O9" t="n">
         <v>2511</v>
       </c>
-      <c r="P9" t="n">
-        <v>2511</v>
-      </c>
+      <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr">
         <is>
           <t>VIOLATION-fiber is 39" from drip_loop

--- a/temp/temp.xlsx
+++ b/temp/temp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,6 +529,16 @@
           <t>PSE Field Notes</t>
         </is>
       </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>grounded</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>molded</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -580,6 +590,8 @@
           <t>pse_primary_riser: 3311</t>
         </is>
       </c>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -628,15 +640,23 @@
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>VIOLATION-catv is 27" from drip_loop
-VIOLATION-catv is 21" from streetlight
-VIOLATION-fiber is 36" from streetlight</t>
+          <t>VIOLATION-catv is 27" from drip_loop</t>
         </is>
       </c>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr">
         <is>
           <t>Drop: 2206</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -689,9 +709,7 @@
         <is>
           <t>VIOLATION-fiber is 29" from drip_loop
 VIOLATION-catv is 39" from drip_loop
-VIOLATION-catv is 10" from fiber
-VIOLATION-catv second attach is 5" from catv
-VIOLATION-telco is 8" from telco second attach</t>
+VIOLATION-catv is 10" from fiber</t>
         </is>
       </c>
       <c r="R4" t="inlineStr"/>
@@ -701,6 +719,8 @@
 Telco second attach: 2011</t>
         </is>
       </c>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -759,6 +779,8 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -822,6 +844,8 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -881,6 +905,8 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -940,6 +966,8 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1000,6 +1028,8 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1061,6 +1091,8 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/temp/temp.xlsx
+++ b/temp/temp.xlsx
@@ -561,9 +561,21 @@
           <t>PSE</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="H2" t="n">
         <v>3400</v>
       </c>
@@ -584,14 +596,26 @@
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="S2" t="inlineStr">
         <is>
           <t>pse_primary_riser: 3311</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -614,9 +638,21 @@
           <t>PSE</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="H3" t="n">
         <v>2808</v>
       </c>
@@ -643,7 +679,11 @@
           <t>VIOLATION-catv is 27" from drip_loop</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="S3" t="inlineStr">
         <is>
           <t>Drop: 2206</t>
@@ -681,9 +721,21 @@
           <t>PSE</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="H4" t="n">
         <v>2702</v>
       </c>
@@ -709,18 +761,32 @@
         <is>
           <t>VIOLATION-fiber is 29" from drip_loop
 VIOLATION-catv is 39" from drip_loop
-VIOLATION-catv is 10" from fiber</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr"/>
+VIOLATION-catv is 10" from fiber
+VIOLATION-catv second attach is 5" from catv
+VIOLATION-telco is 8" from telco second attach</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="S4" t="inlineStr">
         <is>
           <t>CATV second attach: 2201
 Telco second attach: 2011</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -743,9 +809,21 @@
           <t>PSE</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="H5" t="n">
         <v>2500</v>
       </c>
@@ -773,14 +851,26 @@
 VIOLATION-catv is 37" from drip_loop</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="S5" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -803,9 +893,21 @@
           <t>PSE</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="H6" t="n">
         <v>2608</v>
       </c>
@@ -838,14 +940,26 @@
 VIOLATION-telco is 11" from fiber</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="S6" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -868,9 +982,21 @@
           <t>PSE</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="H7" t="n">
         <v>3008</v>
       </c>
@@ -899,14 +1025,26 @@
 VIOLATION-catv is 9" from fiber</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="S7" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -929,9 +1067,21 @@
           <t>PSE</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="H8" t="n">
         <v>3006</v>
       </c>
@@ -960,14 +1110,26 @@
           <t>VIOLATION-catv is 11" from fiber</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="S8" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -990,9 +1152,21 @@
           <t>PSE</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="H9" t="n">
         <v>2910</v>
       </c>
@@ -1022,14 +1196,26 @@
 VIOLATION-telco is 5" from catv</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="S9" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1052,9 +1238,21 @@
           <t>PSE</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
         <v>2508</v>
@@ -1085,14 +1283,26 @@
 VIOLATION-telco is 7" from catv</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="S10" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/temp/temp.xlsx
+++ b/temp/temp.xlsx
@@ -676,7 +676,8 @@
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>VIOLATION-catv is 27" from drip_loop</t>
+          <t>Dress Drip Loop
+Ground Streetlight</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -691,12 +692,12 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -759,11 +760,8 @@
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>VIOLATION-fiber is 29" from drip_loop
-VIOLATION-catv is 39" from drip_loop
-VIOLATION-catv is 10" from fiber
-VIOLATION-catv second attach is 5" from catv
-VIOLATION-telco is 8" from telco second attach</t>
+          <t>Dress Drip Loop
+Move CATV to: 22' 04"</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -847,8 +845,7 @@
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>VIOLATION-fiber is 24" from drip_loop
-VIOLATION-catv is 37" from drip_loop</t>
+          <t>Dress Drip Loop</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -922,10 +919,10 @@
       </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
+        <v>2206</v>
+      </c>
+      <c r="N6" t="n">
         <v>2106</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2206</v>
       </c>
       <c r="O6" t="n">
         <v>2305</v>
@@ -933,11 +930,9 @@
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>VIOLATION-fiber is 39" from neutral_height
-VIOLATION-fiber is 39" from secondary_spool
-VIOLATION-fiber is 31" from secondary_riser
-VIOLATION-fiber is 30" from drip_loop
-VIOLATION-telco is 11" from fiber</t>
+          <t>Move Fiber to: 22' 06"
+Move CATV to: 21' 06"
+Move TelCo to: 20' 06"</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1020,9 +1015,8 @@
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>VIOLATION-fiber is 26" from drip_loop
-VIOLATION-catv is 35" from drip_loop
-VIOLATION-catv is 9" from fiber</t>
+          <t>Dress Drip Loop
+Move Fiber to: 26' 10"</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1107,7 +1101,7 @@
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>VIOLATION-catv is 11" from fiber</t>
+          <t>Move CATV to: 23' 00"</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1190,10 +1184,9 @@
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>VIOLATION-fiber is 39" from drip_loop
-VIOLATION-catv is 6" from fiber
-VIOLATION-telco is 11" from fiber
-VIOLATION-telco is 5" from catv</t>
+          <t>Dress Drip Loop
+Move CATV to: 24' 11"
+Move TelCo to: 23' 11"</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1274,13 +1267,8 @@
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>VIOLATION-catv is 30" from secondary_riser
-VIOLATION-telco is 37" from secondary_riser
-VIOLATION-catv is 28" from secondary_spool
-VIOLATION-telco is 35" from secondary_spool
-VIOLATION-catv is 20" from drip_loop
-VIOLATION-telco is 27" from drip_loop
-VIOLATION-telco is 7" from catv</t>
+          <t>Move CATV to: 21' 08"
+Move TelCo to: 20' 08"</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">

--- a/temp/temp.xlsx
+++ b/temp/temp.xlsx
@@ -595,7 +595,12 @@
         <v>2701</v>
       </c>
       <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Extend Primary Riser to: 35' 00"
+An unrecognizable comment</t>
+        </is>
+      </c>
       <c r="R2" t="inlineStr">
         <is>
           <t>nan</t>

--- a/temp/temp.xlsx
+++ b/temp/temp.xlsx
@@ -595,12 +595,7 @@
         <v>2701</v>
       </c>
       <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>Extend Primary Riser to: 35' 00"
-An unrecognizable comment</t>
-        </is>
-      </c>
+      <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
         <is>
           <t>nan</t>
@@ -682,7 +677,8 @@
       <c r="Q3" t="inlineStr">
         <is>
           <t>Dress Drip Loop
-Ground Streetlight</t>
+Ground Streetlight
+VIOLATION-catv is 27" from drip_loop</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -766,7 +762,8 @@
       <c r="Q4" t="inlineStr">
         <is>
           <t>Dress Drip Loop
-Move CATV to: 22' 04"</t>
+Move CATV to: 22' 04"
+VIOLATION-fiber is 29" from drip_loop</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -850,7 +847,9 @@
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>Dress Drip Loop</t>
+          <t>Dress Drip Loop
+VIOLATION-fiber is 24" from drip_loop
+VIOLATION-catv is 37" from drip_loop</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1021,7 +1020,9 @@
       <c r="Q7" t="inlineStr">
         <is>
           <t>Dress Drip Loop
-Move Fiber to: 26' 10"</t>
+Move Fiber to: 26' 10"
+VIOLATION-fiber is 22" from drip_loop
+VIOLATION-catv is 35" from drip_loop</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1191,7 +1192,8 @@
         <is>
           <t>Dress Drip Loop
 Move CATV to: 24' 11"
-Move TelCo to: 23' 11"</t>
+Move TelCo to: 23' 11"
+VIOLATION-fiber is 39" from drip_loop</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
